--- a/Assignments/hw1/q2/q2r3.xlsx
+++ b/Assignments/hw1/q2/q2r3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB844A1-4F49-4993-AC4F-FF41ED5DE1A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDA694-0977-4069-AE0D-8065E49815FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
   </bookViews>
   <sheets>
     <sheet name="fl" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet1!$B$1:$B$11</definedName>
-    <definedName name="ExternalData_2" localSheetId="2" hidden="1">Sheet1!$D$1:$D$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet1!$B$1:$B$9</definedName>
+    <definedName name="ExternalData_2" localSheetId="2" hidden="1">Sheet1!$D$1:$D$9</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">dal!$A$1:$A$8</definedName>
-    <definedName name="ExternalData_3" localSheetId="2" hidden="1">Sheet1!$E$1:$E$10</definedName>
-    <definedName name="ExternalData_4" localSheetId="2" hidden="1">Sheet1!$C$1:$C$10</definedName>
+    <definedName name="ExternalData_3" localSheetId="2" hidden="1">Sheet1!$E$1:$E$9</definedName>
+    <definedName name="ExternalData_4" localSheetId="2" hidden="1">Sheet1!$C$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Column1</t>
   </si>
@@ -102,16 +102,13 @@
   </si>
   <si>
     <t>a_n+1 - a_n</t>
-  </si>
-  <si>
-    <t>interval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,25 +116,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,12 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -254,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C658EF61-B332-4964-8877-8945BDB56894}" name="al" displayName="al" ref="B1:B11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B1:B11" xr:uid="{6FCD3B4E-DACB-4C1C-AA2E-0E35075350C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C658EF61-B332-4964-8877-8945BDB56894}" name="al" displayName="al" ref="B1:B9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:B9" xr:uid="{6FCD3B4E-DACB-4C1C-AA2E-0E35075350C6}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{51E77B48-864F-4011-9069-9CFA16A39101}" uniqueName="1" name="a_n" queryTableFieldId="1" dataDxfId="3"/>
   </tableColumns>
@@ -264,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFC00CA2-1EAC-478C-B397-6D8C1F651EE4}" name="fl" displayName="fl" ref="D1:D11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D1:D11" xr:uid="{895CBCA9-C35E-4E1E-8F90-7B99121B9077}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFC00CA2-1EAC-478C-B397-6D8C1F651EE4}" name="fl" displayName="fl" ref="D1:D9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:D9" xr:uid="{895CBCA9-C35E-4E1E-8F90-7B99121B9077}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3161F82C-5954-416F-8317-E07C2601E21D}" uniqueName="1" name="f(a)" queryTableFieldId="1" dataDxfId="2"/>
   </tableColumns>
@@ -274,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE78BB8A-5DF7-43A3-8F88-1A45CF400DFD}" name="dal_6" displayName="dal_6" ref="E1:E10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="E1:E10" xr:uid="{37DC60A9-8E3A-4693-B646-A5B1502C34B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE78BB8A-5DF7-43A3-8F88-1A45CF400DFD}" name="dal_6" displayName="dal_6" ref="E1:E9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="E1:E9" xr:uid="{37DC60A9-8E3A-4693-B646-A5B1502C34B9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{22EC89C3-F8A2-4F87-9C87-E7706C0EEE46}" uniqueName="1" name="a_n+1 - a_n" queryTableFieldId="1" dataDxfId="1"/>
   </tableColumns>
@@ -284,8 +267,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B920F233-72F5-443D-91BC-EEC6B249ED08}" name="al_8" displayName="al_8" ref="C1:C10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="C1:C10" xr:uid="{57C781DB-BE2B-4707-816D-588822A995C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B920F233-72F5-443D-91BC-EEC6B249ED08}" name="al_8" displayName="al_8" ref="C1:C9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="C1:C9" xr:uid="{57C781DB-BE2B-4707-816D-588822A995C8}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{158787B8-66C7-4C45-ADDB-2B1AF8A2106F}" uniqueName="1" name="a_n+1" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
@@ -668,21 +651,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D6CFE-2378-4776-ABED-A670053958CA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -698,11 +681,8 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -718,9 +698,8 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -737,7 +716,7 @@
         <v>-0.34251080369479198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -754,7 +733,7 @@
         <v>0.16791157368715601</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -771,7 +750,7 @@
         <v>3.6142144311127299E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -788,7 +767,7 @@
         <v>-6.9875337708866702E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -805,7 +784,7 @@
         <v>2.0069369963593401E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -822,7 +801,7 @@
         <v>1.3642808029956599E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -835,19 +814,19 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
